--- a/biology/Zoologie/Colombier_de_Vassé/Colombier_de_Vassé.xlsx
+++ b/biology/Zoologie/Colombier_de_Vassé/Colombier_de_Vassé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombier_de_Vass%C3%A9</t>
+          <t>Colombier_de_Vassé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le colombier de Vassé est un colombier situé à Rouessé-Vassé, dans la Sarthe (France).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombier_de_Vass%C3%A9</t>
+          <t>Colombier_de_Vassé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colombier de Vassé daterait de la fin du XVIe siècle. Il est symbole de la puissance des seigneurs et destiné à élever les pigeons, le colombier  caractérise les domaines seigneuriaux assez vastes pour éviter les nuisances aux cultures voisines.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombier_de_Vass%C3%A9</t>
+          <t>Colombier_de_Vassé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Restauration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1999 le colombier a menacé de s’effondrer, mais après plusieurs dons d'argent, le colombier subit une importante restauration en 2000.
 Maintenant le colombier de Vassé est un des colombiers les plus importants de la Sarthe.
